--- a/python/out.xlsx
+++ b/python/out.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Student's names</t>
   </si>
@@ -31,25 +31,31 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Chetan Kaushik</t>
+    <t>Contact No.</t>
+  </si>
+  <si>
+    <t>Fee status</t>
+  </si>
+  <si>
+    <t>Vaibhav Aggarwal</t>
   </si>
   <si>
     <t>Computer Engineering</t>
   </si>
   <si>
-    <t>chetan.kaushik.@computer.jcboseust.ac.in</t>
-  </si>
-  <si>
-    <t>*Y$Gk^7ZeK$</t>
-  </si>
-  <si>
-    <t>Dhruv Singh</t>
-  </si>
-  <si>
-    <t>dhruv.singh.@computer.jcboseust.ac.in</t>
-  </si>
-  <si>
-    <t>EI(*i?);$9Q</t>
+    <t>vaibhav.aggarwal.@computer.jcboseust.ac.in</t>
+  </si>
+  <si>
+    <t>&amp;negZrBrA8?</t>
+  </si>
+  <si>
+    <t>Vidushi Tickoo</t>
+  </si>
+  <si>
+    <t>vidushi.tickoo.@computer.jcboseust.ac.in</t>
+  </si>
+  <si>
+    <t>w:,^ROykm!|</t>
   </si>
 </sst>
 </file>
@@ -381,13 +387,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -403,39 +409,57 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>3001</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>9764767579</v>
+      </c>
+      <c r="G2">
+        <v>45000</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>3002</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="F3">
+        <v>8920021900</v>
+      </c>
+      <c r="G3">
+        <v>45000</v>
       </c>
     </row>
   </sheetData>

--- a/python/out.xlsx
+++ b/python/out.xlsx
@@ -1,25 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24020"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_FF6365A891E6E8BF891C87970A1AFEF7E79507B6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4EE557D4-F264-4297-A2B3-8A0698F6BADE}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
+    <t>Student's id</t>
+  </si>
+  <si>
     <t>Student's names</t>
-  </si>
-  <si>
-    <t>Student's id</t>
   </si>
   <si>
     <t>Department</t>
@@ -61,7 +73,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -99,6 +111,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -145,7 +165,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -177,9 +197,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -211,6 +249,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -386,19 +442,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
